--- a/pitcher_matchups_2025-07-01.xlsx
+++ b/pitcher_matchups_2025-07-01.xlsx
@@ -303,6 +303,7 @@
 Jake Meyers (CF)
 Jose Altuve (LF)
 Mauricio Dubón (2B)
+Shay Whitcomb (LF)
 Yainer Diaz (C)</t>
   </si>
   <si>

--- a/pitcher_matchups_2025-07-01.xlsx
+++ b/pitcher_matchups_2025-07-01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>StartTime</t>
   </si>
@@ -158,7 +158,7 @@
     <t>@TOR</t>
   </si>
   <si>
-    <t>@PHI</t>
+    <t>PPD</t>
   </si>
   <si>
     <t>@PIT</t>
@@ -167,13 +167,7 @@
     <t>@MIA</t>
   </si>
   <si>
-    <t>@WSH</t>
-  </si>
-  <si>
     <t>@TB</t>
-  </si>
-  <si>
-    <t>@NYM</t>
   </si>
   <si>
     <t>@BOS</t>
@@ -270,20 +264,6 @@
   </si>
   <si>
     <t>Switch</t>
-  </si>
-  <si>
-    <t>Colt Keith (2B)
-Kerry Carpenter (RF)
-Parker Meadows (CF)
-Riley Greene (LF)
-Zach McKinstry (3B)</t>
-  </si>
-  <si>
-    <t>David Hamilton (2B)
-Jarren Duran (LF)
-Marcelo Mayer (3B)
-Roman Anthony (RF)
-Wilyer Abreu (RF)</t>
   </si>
   <si>
     <t>Alex Verdugo (LF)
@@ -305,12 +285,6 @@
 Mauricio Dubón (2B)
 Shay Whitcomb (LF)
 Yainer Diaz (C)</t>
-  </si>
-  <si>
-    <t>Wenceel Pérez (RF)</t>
-  </si>
-  <si>
-    <t>Abraham Toro (1B)</t>
   </si>
   <si>
     <t>Ozzie Albies (2B)</t>
@@ -781,13 +755,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="6.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="6.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -816,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1">
@@ -842,33 +816,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="1">
@@ -894,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1">
@@ -920,33 +882,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1">
@@ -972,33 +922,21 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1">
@@ -1013,10 +951,10 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1">
@@ -1050,14 +988,14 @@
         <v>12</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1076,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1">
@@ -1102,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="1">
@@ -1128,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="1">
@@ -1154,7 +1092,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="1">
@@ -1180,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1">
@@ -1265,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1274,8 +1212,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="5.7109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="6" customWidth="1"/>
@@ -1283,7 +1221,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1306,103 +1244,63 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:G6">
+  <conditionalFormatting sqref="A3:G4">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
@@ -1416,7 +1314,7 @@
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6">
+  <conditionalFormatting sqref="C3:C4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1432,7 +1330,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6">
+  <conditionalFormatting sqref="D3:D4">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
